--- a/storage/app/templates/MPESA_TEMPLATE.xlsx
+++ b/storage/app/templates/MPESA_TEMPLATE.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\gifms-core\storage\app\templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kennl\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC37EFB0-782F-4385-94C3-DFAE0C53BBDE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="8205"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="22149" windowHeight="11949" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="MPESA_TEMPLATE" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Name</t>
   </si>
@@ -35,11 +36,23 @@
   <si>
     <t>MARY JANE</t>
   </si>
+  <si>
+    <t>DICK HARRY</t>
+  </si>
+  <si>
+    <t>723XXXXXX</t>
+  </si>
+  <si>
+    <t>722XXXXXX</t>
+  </si>
+  <si>
+    <t>XXXXXXXXX</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -840,19 +853,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="2" max="2" width="17.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="17.69140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -863,26 +876,37 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1">
-        <v>723123456</v>
+      <c r="B2" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="C2">
         <v>15000</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="1">
-        <v>722345698</v>
+      <c r="B3" s="1" t="s">
+        <v>7</v>
       </c>
       <c r="C3">
         <v>15000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>10000</v>
       </c>
     </row>
   </sheetData>
